--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0001812606940310157</v>
+        <v>0.003939399324226045</v>
       </c>
       <c r="D2">
-        <v>0.01195247550483924</v>
+        <v>0.04108229454594259</v>
       </c>
       <c r="E2">
-        <v>0.1615658081034057</v>
+        <v>0.2502371920658693</v>
       </c>
       <c r="F2">
-        <v>0.5093416666578414</v>
+        <v>0.6387018093091172</v>
       </c>
       <c r="G2">
-        <v>0.008640882951385986</v>
+        <v>0.03847178559399977</v>
       </c>
       <c r="H2">
-        <v>0.003469589968897679</v>
+        <v>0.02324467905162675</v>
       </c>
       <c r="I2">
-        <v>0.0002390547307895563</v>
+        <v>0.004331495970726795</v>
       </c>
       <c r="J2">
-        <v>0.4861363269186201</v>
+        <v>0.504032656816424</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001812606940310157</v>
+        <v>0.003939399324226045</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.137391683758153E-08</v>
       </c>
       <c r="E3">
-        <v>4.748979740565318E-06</v>
+        <v>0.003229026081643438</v>
       </c>
       <c r="F3">
-        <v>0.0001509416251475049</v>
+        <v>0.003849857549612201</v>
       </c>
       <c r="G3">
-        <v>2.008282429244446E-11</v>
+        <v>7.060412010595485E-07</v>
       </c>
       <c r="H3">
-        <v>2.148030326498684E-06</v>
+        <v>0.0001782056793002695</v>
       </c>
       <c r="I3">
-        <v>0.0001016219316762879</v>
+        <v>0.006419911705607184</v>
       </c>
       <c r="J3">
-        <v>2.220446049250313E-16</v>
+        <v>4.817164197534751E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01195247550483924</v>
+        <v>0.04108229454594259</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6.137391683758153E-08</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0005603094613817472</v>
+        <v>0.02011128779015348</v>
       </c>
       <c r="F4">
-        <v>0.009348085277295137</v>
+        <v>0.03618311219722914</v>
       </c>
       <c r="G4">
-        <v>0.8396509227294315</v>
+        <v>0.8371556167831109</v>
       </c>
       <c r="H4">
-        <v>0.7856102302572086</v>
+        <v>0.7763661882359298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.404487885523167E-10</v>
       </c>
       <c r="J4">
-        <v>7.122391565417274E-11</v>
+        <v>0.000134352010850769</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1615658081034057</v>
+        <v>0.2502371920658693</v>
       </c>
       <c r="C5">
-        <v>4.748979740565318E-06</v>
+        <v>0.003229026081643438</v>
       </c>
       <c r="D5">
-        <v>0.0005603094613817472</v>
+        <v>0.02011128779015348</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1706536167403918</v>
+        <v>0.2531854706500205</v>
       </c>
       <c r="G5">
-        <v>0.0003130251459726452</v>
+        <v>0.018229675389549</v>
       </c>
       <c r="H5">
-        <v>8.437425611407257E-05</v>
+        <v>0.01035747988784386</v>
       </c>
       <c r="I5">
-        <v>6.06204591568904E-06</v>
+        <v>0.003408016666508029</v>
       </c>
       <c r="J5">
-        <v>0.2571579683016196</v>
+        <v>0.4017434039354539</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5093416666578414</v>
+        <v>0.6387018093091172</v>
       </c>
       <c r="C6">
-        <v>0.0001509416251475049</v>
+        <v>0.003849857549612201</v>
       </c>
       <c r="D6">
-        <v>0.009348085277295137</v>
+        <v>0.03618311219722914</v>
       </c>
       <c r="E6">
-        <v>0.1706536167403918</v>
+        <v>0.2531854706500205</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.007051031238089145</v>
+        <v>0.03556660385828647</v>
       </c>
       <c r="H6">
-        <v>0.002490357047755243</v>
+        <v>0.02014030353133123</v>
       </c>
       <c r="I6">
-        <v>0.0001870158196992655</v>
+        <v>0.00404587924091504</v>
       </c>
       <c r="J6">
-        <v>0.5936872189012243</v>
+        <v>0.6216241516277337</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.008640882951385986</v>
+        <v>0.03847178559399977</v>
       </c>
       <c r="C7">
-        <v>2.008282429244446E-11</v>
+        <v>7.060412010595485E-07</v>
       </c>
       <c r="D7">
-        <v>0.8396509227294315</v>
+        <v>0.8371556167831109</v>
       </c>
       <c r="E7">
-        <v>0.0003130251459726452</v>
+        <v>0.018229675389549</v>
       </c>
       <c r="F7">
-        <v>0.007051031238089145</v>
+        <v>0.03556660385828647</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.8487588023903088</v>
+        <v>0.8554186857318407</v>
       </c>
       <c r="I7">
-        <v>9.713940762878792E-11</v>
+        <v>8.772176307569879E-07</v>
       </c>
       <c r="J7">
-        <v>1.48769885299771E-13</v>
+        <v>6.547176943638711E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003469589968897679</v>
+        <v>0.02324467905162675</v>
       </c>
       <c r="C8">
-        <v>2.148030326498684E-06</v>
+        <v>0.0001782056793002695</v>
       </c>
       <c r="D8">
-        <v>0.7856102302572086</v>
+        <v>0.7763661882359298</v>
       </c>
       <c r="E8">
-        <v>8.437425611407257E-05</v>
+        <v>0.01035747988784386</v>
       </c>
       <c r="F8">
-        <v>0.002490357047755243</v>
+        <v>0.02014030353133123</v>
       </c>
       <c r="G8">
-        <v>0.8487588023903088</v>
+        <v>0.8554186857318407</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>5.103214809398793E-06</v>
+        <v>0.0001623557350696192</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.687135891774275E-06</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0002390547307895563</v>
+        <v>0.004331495970726795</v>
       </c>
       <c r="C9">
-        <v>0.0001016219316762879</v>
+        <v>0.006419911705607184</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4.404487885523167E-10</v>
       </c>
       <c r="E9">
-        <v>6.06204591568904E-06</v>
+        <v>0.003408016666508029</v>
       </c>
       <c r="F9">
-        <v>0.0001870158196992655</v>
+        <v>0.00404587924091504</v>
       </c>
       <c r="G9">
-        <v>9.713940762878792E-11</v>
+        <v>8.772176307569879E-07</v>
       </c>
       <c r="H9">
-        <v>5.103214809398793E-06</v>
+        <v>0.0001623557350696192</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.045218133657102E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4861363269186201</v>
+        <v>0.504032656816424</v>
       </c>
       <c r="C10">
-        <v>2.220446049250313E-16</v>
+        <v>4.817164197534751E-06</v>
       </c>
       <c r="D10">
-        <v>7.122391565417274E-11</v>
+        <v>0.000134352010850769</v>
       </c>
       <c r="E10">
-        <v>0.2571579683016196</v>
+        <v>0.4017434039354539</v>
       </c>
       <c r="F10">
-        <v>0.5936872189012243</v>
+        <v>0.6216241516277337</v>
       </c>
       <c r="G10">
-        <v>1.48769885299771E-13</v>
+        <v>6.547176943638711E-05</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.687135891774275E-06</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.045218133657102E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.773343617377194</v>
+        <v>3.44554356293951</v>
       </c>
       <c r="D2">
-        <v>2.523179225163426</v>
+        <v>2.249633324597215</v>
       </c>
       <c r="E2">
-        <v>-1.40199035459689</v>
+        <v>-1.19950975465698</v>
       </c>
       <c r="F2">
-        <v>-0.6603578097582249</v>
+        <v>-0.47991131098698</v>
       </c>
       <c r="G2">
-        <v>2.636807952871866</v>
+        <v>2.284383954478518</v>
       </c>
       <c r="H2">
-        <v>2.937370014341453</v>
+        <v>2.547168371123652</v>
       </c>
       <c r="I2">
-        <v>3.701693314189904</v>
+        <v>3.397836052095905</v>
       </c>
       <c r="J2">
-        <v>-0.6970073433876155</v>
+        <v>-0.685809349746224</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.773343617377194</v>
+        <v>-3.44554356293951</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.804401130865415</v>
+        <v>-10.34360809719496</v>
       </c>
       <c r="E3">
-        <v>-4.628496426460497</v>
+        <v>-3.54559908497429</v>
       </c>
       <c r="F3">
-        <v>-3.820113988378677</v>
+        <v>-3.457106733984725</v>
       </c>
       <c r="G3">
-        <v>-6.869622865314195</v>
+        <v>-8.464119253530548</v>
       </c>
       <c r="H3">
-        <v>-4.797619473576383</v>
+        <v>-5.047300102606878</v>
       </c>
       <c r="I3">
-        <v>-3.91960458666454</v>
+        <v>-3.200049298329156</v>
       </c>
       <c r="J3">
-        <v>-8.492377246320345</v>
+        <v>-7.165481192327922</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.523179225163426</v>
+        <v>-2.249633324597215</v>
       </c>
       <c r="C4">
-        <v>9.804401130865415</v>
+        <v>10.34360809719496</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.473510530503278</v>
+        <v>-2.621647299533797</v>
       </c>
       <c r="F4">
-        <v>-2.609614707839591</v>
+        <v>-2.316728576027316</v>
       </c>
       <c r="G4">
-        <v>-0.2024499734400954</v>
+        <v>-0.2093958397227834</v>
       </c>
       <c r="H4">
-        <v>-0.2721678593373581</v>
+        <v>-0.2896009849129749</v>
       </c>
       <c r="I4">
-        <v>11.46104560498357</v>
+        <v>15.16467443954555</v>
       </c>
       <c r="J4">
-        <v>-6.668903293899818</v>
+        <v>-5.200950035400491</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.40199035459689</v>
+        <v>1.19950975465698</v>
       </c>
       <c r="C5">
-        <v>4.628496426460497</v>
+        <v>3.54559908497429</v>
       </c>
       <c r="D5">
-        <v>3.473510530503278</v>
+        <v>2.621647299533797</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.37216723257432</v>
+        <v>1.191710524936796</v>
       </c>
       <c r="G5">
-        <v>3.630767452811711</v>
+        <v>2.671966885775691</v>
       </c>
       <c r="H5">
-        <v>3.965653607700771</v>
+        <v>2.959106641125093</v>
       </c>
       <c r="I5">
-        <v>4.575408667203965</v>
+        <v>3.518439992896913</v>
       </c>
       <c r="J5">
-        <v>1.134486443898492</v>
+        <v>0.8647637395590874</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6603578097582249</v>
+        <v>0.47991131098698</v>
       </c>
       <c r="C6">
-        <v>3.820113988378677</v>
+        <v>3.457106733984725</v>
       </c>
       <c r="D6">
-        <v>2.609614707839591</v>
+        <v>2.316728576027316</v>
       </c>
       <c r="E6">
-        <v>-1.37216723257432</v>
+        <v>-1.191710524936796</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.706087124964543</v>
+        <v>2.325771618849315</v>
       </c>
       <c r="H6">
-        <v>3.040607542079112</v>
+        <v>2.620907572766243</v>
       </c>
       <c r="I6">
-        <v>3.765308499465104</v>
+        <v>3.432131918402313</v>
       </c>
       <c r="J6">
-        <v>-0.5338583114358205</v>
+        <v>-0.5046940976041824</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.636807952871866</v>
+        <v>-2.284383954478518</v>
       </c>
       <c r="C7">
-        <v>6.869622865314195</v>
+        <v>8.464119253530548</v>
       </c>
       <c r="D7">
-        <v>0.2024499734400954</v>
+        <v>0.2093958397227834</v>
       </c>
       <c r="E7">
-        <v>-3.630767452811711</v>
+        <v>-2.671966885775691</v>
       </c>
       <c r="F7">
-        <v>-2.706087124964543</v>
+        <v>-2.325771618849315</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.1908055258917118</v>
+        <v>-0.185602508983943</v>
       </c>
       <c r="I7">
-        <v>6.618972852272258</v>
+        <v>8.310067398859305</v>
       </c>
       <c r="J7">
-        <v>-7.607962702728371</v>
+        <v>-5.59993853056273</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.937370014341453</v>
+        <v>-2.547168371123652</v>
       </c>
       <c r="C8">
-        <v>4.797619473576383</v>
+        <v>5.047300102606878</v>
       </c>
       <c r="D8">
-        <v>0.2721678593373581</v>
+        <v>0.2896009849129749</v>
       </c>
       <c r="E8">
-        <v>-3.965653607700771</v>
+        <v>-2.959106641125093</v>
       </c>
       <c r="F8">
-        <v>-3.040607542079112</v>
+        <v>-2.620907572766243</v>
       </c>
       <c r="G8">
-        <v>0.1908055258917118</v>
+        <v>0.185602508983943</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.612904798830328</v>
+        <v>5.097783290225642</v>
       </c>
       <c r="J8">
-        <v>-8.983027776687226</v>
+        <v>-7.059576484813658</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.701693314189904</v>
+        <v>-3.397836052095905</v>
       </c>
       <c r="C9">
-        <v>3.91960458666454</v>
+        <v>3.200049298329156</v>
       </c>
       <c r="D9">
-        <v>-11.46104560498357</v>
+        <v>-15.16467443954555</v>
       </c>
       <c r="E9">
-        <v>-4.575408667203965</v>
+        <v>-3.518439992896913</v>
       </c>
       <c r="F9">
-        <v>-3.765308499465104</v>
+        <v>-3.432131918402313</v>
       </c>
       <c r="G9">
-        <v>-6.618972852272258</v>
+        <v>-8.310067398859305</v>
       </c>
       <c r="H9">
-        <v>-4.612904798830328</v>
+        <v>-5.097783290225642</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-8.884828322331243</v>
+        <v>-7.463033488022635</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6970073433876155</v>
+        <v>0.685809349746224</v>
       </c>
       <c r="C10">
-        <v>8.492377246320345</v>
+        <v>7.165481192327922</v>
       </c>
       <c r="D10">
-        <v>6.668903293899818</v>
+        <v>5.200950035400491</v>
       </c>
       <c r="E10">
-        <v>-1.134486443898492</v>
+        <v>-0.8647637395590874</v>
       </c>
       <c r="F10">
-        <v>0.5338583114358205</v>
+        <v>0.5046940976041824</v>
       </c>
       <c r="G10">
-        <v>7.607962702728371</v>
+        <v>5.59993853056273</v>
       </c>
       <c r="H10">
-        <v>8.983027776687226</v>
+        <v>7.059576484813658</v>
       </c>
       <c r="I10">
-        <v>8.884828322331243</v>
+        <v>7.463033488022635</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0.5460805415511361</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0.5794887911213552</v>
@@ -1480,16 +1480,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
         <v>0.7500291493698359</v>
@@ -1500,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
         <v>0.7458570662269725</v>
@@ -1520,16 +1520,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>0.7408776262190067</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.003939399324226045</v>
+        <v>0.0002481470924857732</v>
       </c>
       <c r="D2">
-        <v>0.04108229454594259</v>
+        <v>0.1130769732953436</v>
       </c>
       <c r="E2">
-        <v>0.2502371920658693</v>
+        <v>0.1505721351829117</v>
       </c>
       <c r="F2">
-        <v>0.6387018093091172</v>
+        <v>0.003278345339890798</v>
       </c>
       <c r="G2">
-        <v>0.03847178559399977</v>
+        <v>0.02976579914283772</v>
       </c>
       <c r="H2">
-        <v>0.02324467905162675</v>
+        <v>0.01239198739756309</v>
       </c>
       <c r="I2">
-        <v>0.004331495970726795</v>
+        <v>0.0003503188161884108</v>
       </c>
       <c r="J2">
-        <v>0.504032656816424</v>
+        <v>0.291678179638108</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003939399324226045</v>
+        <v>0.0002481470924857732</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.137391683758153E-08</v>
+        <v>3.489262212497124E-10</v>
       </c>
       <c r="E3">
-        <v>0.003229026081643438</v>
+        <v>9.347966845041356E-11</v>
       </c>
       <c r="F3">
-        <v>0.003849857549612201</v>
+        <v>0.0001041611464103198</v>
       </c>
       <c r="G3">
-        <v>7.060412010595485E-07</v>
+        <v>2.770294260656669E-08</v>
       </c>
       <c r="H3">
-        <v>0.0001782056793002695</v>
+        <v>6.045088034589696E-07</v>
       </c>
       <c r="I3">
-        <v>0.006419911705607184</v>
+        <v>0.001812334655150627</v>
       </c>
       <c r="J3">
-        <v>4.817164197534751E-06</v>
+        <v>1.843792222455676E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04108229454594259</v>
+        <v>0.1130769732953436</v>
       </c>
       <c r="C4">
-        <v>6.137391683758153E-08</v>
+        <v>3.489262212497124E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.02011128779015348</v>
+        <v>9.131602540790595E-08</v>
       </c>
       <c r="F4">
-        <v>0.03618311219722914</v>
+        <v>0.02750885529575986</v>
       </c>
       <c r="G4">
-        <v>0.8371556167831109</v>
+        <v>0.01956240998899617</v>
       </c>
       <c r="H4">
-        <v>0.7763661882359298</v>
+        <v>0.007185169092752686</v>
       </c>
       <c r="I4">
-        <v>4.404487885523167E-10</v>
+        <v>1.396628368510733E-09</v>
       </c>
       <c r="J4">
-        <v>0.000134352010850769</v>
+        <v>0.08352142524778028</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2502371920658693</v>
+        <v>0.1505721351829117</v>
       </c>
       <c r="C5">
-        <v>0.003229026081643438</v>
+        <v>9.347966845041356E-11</v>
       </c>
       <c r="D5">
-        <v>0.02011128779015348</v>
+        <v>9.131602540790595E-08</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2531854706500205</v>
+        <v>0.03708470902775707</v>
       </c>
       <c r="G5">
-        <v>0.018229675389549</v>
+        <v>0.003273315666283416</v>
       </c>
       <c r="H5">
-        <v>0.01035747988784386</v>
+        <v>0.001217057143112488</v>
       </c>
       <c r="I5">
-        <v>0.003408016666508029</v>
+        <v>3.023623573739087E-10</v>
       </c>
       <c r="J5">
-        <v>0.4017434039354539</v>
+        <v>0.1339557123560662</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6387018093091172</v>
+        <v>0.003278345339890798</v>
       </c>
       <c r="C6">
-        <v>0.003849857549612201</v>
+        <v>0.0001041611464103198</v>
       </c>
       <c r="D6">
-        <v>0.03618311219722914</v>
+        <v>0.02750885529575986</v>
       </c>
       <c r="E6">
-        <v>0.2531854706500205</v>
+        <v>0.03708470902775707</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03556660385828647</v>
+        <v>0.005607233361794917</v>
       </c>
       <c r="H6">
-        <v>0.02014030353133123</v>
+        <v>0.002237406222710625</v>
       </c>
       <c r="I6">
-        <v>0.00404587924091504</v>
+        <v>0.0001425765162055281</v>
       </c>
       <c r="J6">
-        <v>0.6216241516277337</v>
+        <v>0.01813103620785927</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03847178559399977</v>
+        <v>0.02976579914283772</v>
       </c>
       <c r="C7">
-        <v>7.060412010595485E-07</v>
+        <v>2.770294260656669E-08</v>
       </c>
       <c r="D7">
-        <v>0.8371556167831109</v>
+        <v>0.01956240998899617</v>
       </c>
       <c r="E7">
-        <v>0.018229675389549</v>
+        <v>0.003273315666283416</v>
       </c>
       <c r="F7">
-        <v>0.03556660385828647</v>
+        <v>0.005607233361794917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.8554186857318407</v>
+        <v>0.3099046135812487</v>
       </c>
       <c r="I7">
-        <v>8.772176307569879E-07</v>
+        <v>5.782828571554433E-08</v>
       </c>
       <c r="J7">
-        <v>6.547176943638711E-05</v>
+        <v>0.01009293276826262</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02324467905162675</v>
+        <v>0.01239198739756309</v>
       </c>
       <c r="C8">
-        <v>0.0001782056793002695</v>
+        <v>6.045088034589696E-07</v>
       </c>
       <c r="D8">
-        <v>0.7763661882359298</v>
+        <v>0.007185169092752686</v>
       </c>
       <c r="E8">
-        <v>0.01035747988784386</v>
+        <v>0.001217057143112488</v>
       </c>
       <c r="F8">
-        <v>0.02014030353133123</v>
+        <v>0.002237406222710625</v>
       </c>
       <c r="G8">
-        <v>0.8554186857318407</v>
+        <v>0.3099046135812487</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.0001623557350696192</v>
+        <v>2.996737491489654E-07</v>
       </c>
       <c r="J8">
-        <v>5.687135891774275E-06</v>
+        <v>0.001871667264621069</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004331495970726795</v>
+        <v>0.0003503188161884108</v>
       </c>
       <c r="C9">
-        <v>0.006419911705607184</v>
+        <v>0.001812334655150627</v>
       </c>
       <c r="D9">
-        <v>4.404487885523167E-10</v>
+        <v>1.396628368510733E-09</v>
       </c>
       <c r="E9">
-        <v>0.003408016666508029</v>
+        <v>3.023623573739087E-10</v>
       </c>
       <c r="F9">
-        <v>0.00404587924091504</v>
+        <v>0.0001425765162055281</v>
       </c>
       <c r="G9">
-        <v>8.772176307569879E-07</v>
+        <v>5.782828571554433E-08</v>
       </c>
       <c r="H9">
-        <v>0.0001623557350696192</v>
+        <v>2.996737491489654E-07</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3.045218133657102E-06</v>
+        <v>2.176582837898344E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.504032656816424</v>
+        <v>0.291678179638108</v>
       </c>
       <c r="C10">
-        <v>4.817164197534751E-06</v>
+        <v>1.843792222455676E-05</v>
       </c>
       <c r="D10">
-        <v>0.000134352010850769</v>
+        <v>0.08352142524778028</v>
       </c>
       <c r="E10">
-        <v>0.4017434039354539</v>
+        <v>0.1339557123560662</v>
       </c>
       <c r="F10">
-        <v>0.6216241516277337</v>
+        <v>0.01813103620785927</v>
       </c>
       <c r="G10">
-        <v>6.547176943638711E-05</v>
+        <v>0.01009293276826262</v>
       </c>
       <c r="H10">
-        <v>5.687135891774275E-06</v>
+        <v>0.001871667264621069</v>
       </c>
       <c r="I10">
-        <v>3.045218133657102E-06</v>
+        <v>2.176582837898344E-05</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.44554356293951</v>
+        <v>4.363708665318773</v>
       </c>
       <c r="D2">
-        <v>2.249633324597215</v>
+        <v>1.650349973999534</v>
       </c>
       <c r="E2">
-        <v>-1.19950975465698</v>
+        <v>1.489426928453636</v>
       </c>
       <c r="F2">
-        <v>-0.47991131098698</v>
+        <v>-3.297902307089003</v>
       </c>
       <c r="G2">
-        <v>2.284383954478518</v>
+        <v>2.323852249076495</v>
       </c>
       <c r="H2">
-        <v>2.547168371123652</v>
+        <v>2.723995799104896</v>
       </c>
       <c r="I2">
-        <v>3.397836052095905</v>
+        <v>4.222594777744376</v>
       </c>
       <c r="J2">
-        <v>-0.685809349746224</v>
+        <v>1.080372546927618</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.44554356293951</v>
+        <v>-4.363708665318773</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-10.34360809719496</v>
+        <v>-10.69781797835518</v>
       </c>
       <c r="E3">
-        <v>-3.54559908497429</v>
+        <v>-11.47450638042942</v>
       </c>
       <c r="F3">
-        <v>-3.457106733984725</v>
+        <v>-4.719383190130026</v>
       </c>
       <c r="G3">
-        <v>-8.464119253530548</v>
+        <v>-8.36895364071542</v>
       </c>
       <c r="H3">
-        <v>-5.047300102606878</v>
+        <v>-6.916715397233604</v>
       </c>
       <c r="I3">
-        <v>-3.200049298329156</v>
+        <v>-3.546013256344026</v>
       </c>
       <c r="J3">
-        <v>-7.165481192327922</v>
+        <v>-5.436400534068445</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.249633324597215</v>
+        <v>-1.650349973999534</v>
       </c>
       <c r="C4">
-        <v>10.34360809719496</v>
+        <v>10.69781797835518</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.621647299533797</v>
+        <v>-7.791183327586594</v>
       </c>
       <c r="F4">
-        <v>-2.316728576027316</v>
+        <v>-2.360875515691716</v>
       </c>
       <c r="G4">
-        <v>-0.2093958397227834</v>
+        <v>2.518434523665245</v>
       </c>
       <c r="H4">
-        <v>-0.2896009849129749</v>
+        <v>2.962928575772177</v>
       </c>
       <c r="I4">
-        <v>15.16467443954555</v>
+        <v>9.920086370992763</v>
       </c>
       <c r="J4">
-        <v>-5.200950035400491</v>
+        <v>-1.812866796803577</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.19950975465698</v>
+        <v>-1.489426928453636</v>
       </c>
       <c r="C5">
-        <v>3.54559908497429</v>
+        <v>11.47450638042942</v>
       </c>
       <c r="D5">
-        <v>2.621647299533797</v>
+        <v>7.791183327586594</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.191710524936796</v>
+        <v>-2.219339064068812</v>
       </c>
       <c r="G5">
-        <v>2.671966885775691</v>
+        <v>3.298549642089332</v>
       </c>
       <c r="H5">
-        <v>2.959106641125093</v>
+        <v>3.711063638743306</v>
       </c>
       <c r="I5">
-        <v>3.518439992896913</v>
+        <v>10.78042618227612</v>
       </c>
       <c r="J5">
-        <v>0.8647637395590874</v>
+        <v>-1.556092069599067</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.47991131098698</v>
+        <v>3.297902307089003</v>
       </c>
       <c r="C6">
-        <v>3.457106733984725</v>
+        <v>4.719383190130026</v>
       </c>
       <c r="D6">
-        <v>2.316728576027316</v>
+        <v>2.360875515691716</v>
       </c>
       <c r="E6">
-        <v>-1.191710524936796</v>
+        <v>2.219339064068812</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.325771618849315</v>
+        <v>3.069769958281181</v>
       </c>
       <c r="H6">
-        <v>2.620907572766243</v>
+        <v>3.458193139056382</v>
       </c>
       <c r="I6">
-        <v>3.432131918402313</v>
+        <v>4.590609299605029</v>
       </c>
       <c r="J6">
-        <v>-0.5046940976041824</v>
+        <v>2.553047159313956</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.284383954478518</v>
+        <v>-2.323852249076495</v>
       </c>
       <c r="C7">
-        <v>8.464119253530548</v>
+        <v>8.36895364071542</v>
       </c>
       <c r="D7">
-        <v>0.2093958397227834</v>
+        <v>-2.518434523665245</v>
       </c>
       <c r="E7">
-        <v>-2.671966885775691</v>
+        <v>-3.298549642089332</v>
       </c>
       <c r="F7">
-        <v>-2.325771618849315</v>
+        <v>-3.069769958281181</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.185602508983943</v>
+        <v>1.039407347753934</v>
       </c>
       <c r="I7">
-        <v>8.310067398859305</v>
+        <v>8.009935737609382</v>
       </c>
       <c r="J7">
-        <v>-5.59993853056273</v>
+        <v>-2.814689915371937</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.547168371123652</v>
+        <v>-2.723995799104896</v>
       </c>
       <c r="C8">
-        <v>5.047300102606878</v>
+        <v>6.916715397233604</v>
       </c>
       <c r="D8">
-        <v>0.2896009849129749</v>
+        <v>-2.962928575772177</v>
       </c>
       <c r="E8">
-        <v>-2.959106641125093</v>
+        <v>-3.711063638743306</v>
       </c>
       <c r="F8">
-        <v>-2.620907572766243</v>
+        <v>-3.458193139056382</v>
       </c>
       <c r="G8">
-        <v>0.185602508983943</v>
+        <v>-1.039407347753934</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.097783290225642</v>
+        <v>7.235927456156813</v>
       </c>
       <c r="J8">
-        <v>-7.059576484813658</v>
+        <v>-3.532610442818574</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.397836052095905</v>
+        <v>-4.222594777744376</v>
       </c>
       <c r="C9">
-        <v>3.200049298329156</v>
+        <v>3.546013256344026</v>
       </c>
       <c r="D9">
-        <v>-15.16467443954555</v>
+        <v>-9.920086370992763</v>
       </c>
       <c r="E9">
-        <v>-3.518439992896913</v>
+        <v>-10.78042618227612</v>
       </c>
       <c r="F9">
-        <v>-3.432131918402313</v>
+        <v>-4.590609299605029</v>
       </c>
       <c r="G9">
-        <v>-8.310067398859305</v>
+        <v>-8.009935737609382</v>
       </c>
       <c r="H9">
-        <v>-5.097783290225642</v>
+        <v>-7.235927456156813</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.463033488022635</v>
+        <v>-5.367012410638516</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.685809349746224</v>
+        <v>-1.080372546927618</v>
       </c>
       <c r="C10">
-        <v>7.165481192327922</v>
+        <v>5.436400534068445</v>
       </c>
       <c r="D10">
-        <v>5.200950035400491</v>
+        <v>1.812866796803577</v>
       </c>
       <c r="E10">
-        <v>-0.8647637395590874</v>
+        <v>1.556092069599067</v>
       </c>
       <c r="F10">
-        <v>0.5046940976041824</v>
+        <v>-2.553047159313956</v>
       </c>
       <c r="G10">
-        <v>5.59993853056273</v>
+        <v>2.814689915371937</v>
       </c>
       <c r="H10">
-        <v>7.059576484813658</v>
+        <v>3.532610442818574</v>
       </c>
       <c r="I10">
-        <v>7.463033488022635</v>
+        <v>5.367012410638516</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="F2">
-        <v>0.5460805415511361</v>
+        <v>0.5447937599161985</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="F3">
-        <v>0.5794887911213552</v>
+        <v>0.5761422966930957</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1492,12 +1492,12 @@
         <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.7500291493698359</v>
+        <v>0.7178601808777606</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1512,47 +1512,47 @@
         <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.7458570662269725</v>
+        <v>0.7720738198247329</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7408776262190067</v>
+        <v>0.8811661466316971</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.02468787565879</v>
+        <v>0.9422927017414917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1563,36 +1563,36 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.189440126594161</v>
+        <v>0.7836851223523358</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.036521441258903</v>
+        <v>0.7288809891666385</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.078429708425278</v>
+        <v>0.8488930071618396</v>
       </c>
     </row>
   </sheetData>
